--- a/data/trans_camb/P2A_fisi_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9753816698084056</v>
+        <v>0.7597221087454624</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.128325542400662</v>
+        <v>1.748696570717294</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.743204407317435</v>
+        <v>6.880115742479031</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.415059771971442</v>
+        <v>0.5302377051804258</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4051430354020866</v>
+        <v>-0.3949429669677135</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.538913095054323</v>
+        <v>3.564412538257499</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.157132911251963</v>
+        <v>1.402490438977533</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.469940341576173</v>
+        <v>1.306021270753698</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.952886267004485</v>
+        <v>6.033996510702559</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.449805015918249</v>
+        <v>5.221435626233414</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.644495521151043</v>
+        <v>6.603730959524233</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.29619370765179</v>
+        <v>12.27914286555152</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.805256188194136</v>
+        <v>5.665145784812939</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.830525478769558</v>
+        <v>4.808026756447938</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.543515875404989</v>
+        <v>8.443206916465568</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.749198505013194</v>
+        <v>4.702144222747803</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.970579305578533</v>
+        <v>4.870368286283795</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.579161641696448</v>
+        <v>9.620974499128449</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2092960984090238</v>
+        <v>0.1811174885317302</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.5439808279176722</v>
+        <v>0.403218234151459</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.615166630477042</v>
+        <v>1.698058638735795</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04659966675213779</v>
+        <v>0.07864170866698887</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.09101898631240393</v>
+        <v>-0.07283646230058835</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5292002153014187</v>
+        <v>0.5487244529548395</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2558697699082523</v>
+        <v>0.2962871141957557</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2842104570564787</v>
+        <v>0.2673533627457205</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.259808569723305</v>
+        <v>1.283016500886519</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.657310893268381</v>
+        <v>2.697638732890268</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.385097989957817</v>
+        <v>3.292151027993591</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>6.404613482097824</v>
+        <v>6.270160904786948</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.481234653626558</v>
+        <v>1.335692114279198</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.19092985569082</v>
+        <v>1.248588713543324</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.23316607596217</v>
+        <v>2.217393424487319</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.577948007445463</v>
+        <v>1.462658483992579</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.49882722350457</v>
+        <v>1.537785290030756</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.993246205782993</v>
+        <v>3.028684112208216</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2447570528394081</v>
+        <v>0.2358510162095881</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.360357996976092</v>
+        <v>-2.518055525885026</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.853449846764993</v>
+        <v>3.744891505236921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.842510280896327</v>
+        <v>1.681621402321829</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.983323568180834</v>
+        <v>-1.021654660289817</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.433429024358587</v>
+        <v>5.506947114441305</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.796096547126712</v>
+        <v>1.643448803122397</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.11553328178555</v>
+        <v>-1.289613412652555</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.219030341402385</v>
+        <v>5.267576150675467</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.206656692481243</v>
+        <v>4.780279161584504</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.709242726329853</v>
+        <v>1.643560140525442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.899784323880375</v>
+        <v>8.994578052700934</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.649860434422586</v>
+        <v>6.538762667542085</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.62148056865423</v>
+        <v>3.603134259059639</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.828693077729461</v>
+        <v>10.14990017223602</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.016011304795803</v>
+        <v>5.050368755592817</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.017336227195461</v>
+        <v>1.973958461808844</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.680482796793394</v>
+        <v>8.612733536563523</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.03166776262182598</v>
+        <v>0.008895152429618471</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3505113044782173</v>
+        <v>-0.3940845406350439</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5801320051040575</v>
+        <v>0.5517628094147682</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.245894856514923</v>
+        <v>0.220162534726558</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1583954399935265</v>
+        <v>-0.1594680583278187</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7445108701137386</v>
+        <v>0.8016670347995691</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2947278729890837</v>
+        <v>0.2433022618557423</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1736042719515631</v>
+        <v>-0.1947320368337963</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.8032402484566981</v>
+        <v>0.8240368551861711</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.150138521682566</v>
+        <v>1.072898476164301</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4230336882320438</v>
+        <v>0.3807438826572974</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.939391939963652</v>
+        <v>1.91428920655628</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.414713770385186</v>
+        <v>1.3688989716758</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7667351079529764</v>
+        <v>0.7094394321568165</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.1561788996333</v>
+        <v>2.315316821794552</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.042238313212742</v>
+        <v>1.051643180293053</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4329160035402254</v>
+        <v>0.3955785877999121</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.834999850289335</v>
+        <v>1.764597300707736</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-2.659262700479777</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.173141724602332</v>
+        <v>6.173141724602335</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.392738043549098</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.284749396624187</v>
+        <v>-0.8654302594379734</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.884626974217234</v>
+        <v>-5.216249533205059</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.182503071297096</v>
+        <v>3.062562489602974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3288516151170691</v>
+        <v>-0.3117398943470856</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.389568411823448</v>
+        <v>-3.123058160778178</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.742788211650829</v>
+        <v>3.543399221771258</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04226318634176122</v>
+        <v>0.1072274401547776</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.487486497842338</v>
+        <v>-3.449572972204401</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.051043146091422</v>
+        <v>4.250414615642171</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.29993077916792</v>
+        <v>4.398141541506081</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.5477379095803127</v>
+        <v>-0.5391981981313145</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.177325768896713</v>
+        <v>9.186062528385035</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.197423320492208</v>
+        <v>5.610156723338206</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.671446310953532</v>
+        <v>1.889475652692687</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.868212394155082</v>
+        <v>9.098706072985911</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.954082545976376</v>
+        <v>4.167334136284195</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.09220620197332274</v>
+        <v>-0.0104074065635434</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.334159175220925</v>
+        <v>8.245429266568385</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1702513676212854</v>
+        <v>-0.1489734189903154</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6909527715368239</v>
+        <v>-0.6927581345736992</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4557264611645424</v>
+        <v>0.393565790003132</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05971498892146701</v>
+        <v>-0.05435512387385276</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4458886299948562</v>
+        <v>-0.4345201463507565</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5051782189981932</v>
+        <v>0.4654133765601224</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0002958511615050671</v>
+        <v>0.0108676331458097</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4854581728190921</v>
+        <v>-0.4993318301316132</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5694889006742584</v>
+        <v>0.6170068329973373</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9244293076140669</v>
+        <v>0.9939116899913033</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1107248318692843</v>
+        <v>-0.09214645808797459</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.131925580283703</v>
+        <v>2.012806833910156</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.100780946435618</v>
+        <v>1.20061055642937</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3641158923618946</v>
+        <v>0.440203397902159</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.914399268003806</v>
+        <v>2.003910137348289</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8320446409891699</v>
+        <v>0.8395302607873774</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.007863707443493937</v>
+        <v>0.02174666775527214</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.687910175224417</v>
+        <v>1.653576972880851</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2655699661350807</v>
+        <v>-0.2240797862468191</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6784561221399064</v>
+        <v>-0.8098682521410383</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1946173834710461</v>
+        <v>0.04474942921196769</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.7148315933782882</v>
+        <v>-0.7814707668323466</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.268546123958165</v>
+        <v>-2.403504103054912</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.8448806536100498</v>
+        <v>-0.84379791268638</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.252209781510917</v>
+        <v>0.2538523952829082</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.8746950428564252</v>
+        <v>-0.9602056175607552</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2506965301116799</v>
+        <v>0.4555501627953527</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.491273199616279</v>
+        <v>4.483526843046006</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.709493357118563</v>
+        <v>3.649574483901823</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.797651999216368</v>
+        <v>4.609357089344137</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.975283250601807</v>
+        <v>4.48459342429125</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.596765133434626</v>
+        <v>2.61527275355144</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.607066076210379</v>
+        <v>3.654588009653485</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.648533295028844</v>
+        <v>3.709232934576868</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.482350850673221</v>
+        <v>2.367348530034563</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.529313299377947</v>
+        <v>3.428839892813445</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04377272221256662</v>
+        <v>-0.03680748857690071</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.101453493274654</v>
+        <v>-0.1302007457719109</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.02700701422518401</v>
+        <v>3.187723714029956e-05</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.08992626006808578</v>
+        <v>-0.08737258047157737</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2618231892988001</v>
+        <v>-0.2646229998635432</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08984448375313654</v>
+        <v>-0.1040864924010102</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03239863838861443</v>
+        <v>0.03357325950791568</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1176063361320511</v>
+        <v>-0.1250607088772988</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.03188419708108301</v>
+        <v>0.06110922864245462</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9890234916724434</v>
+        <v>1.006534952306868</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8560498366818127</v>
+        <v>0.811345211519561</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.109660501930691</v>
+        <v>1.001616503508141</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5849273190290166</v>
+        <v>0.685726609943544</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3996523092041329</v>
+        <v>0.4023273851799894</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5704471587137701</v>
+        <v>0.5561407555098542</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6221545544686409</v>
+        <v>0.6250729740376241</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4144149808797347</v>
+        <v>0.4031179451528695</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5977709507115023</v>
+        <v>0.5840560910075353</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.5597803331040416</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.867103302012763</v>
+        <v>5.867103302012761</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.827519567254083</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.17125418167643</v>
+        <v>1.144271555085198</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4773013326679644</v>
+        <v>-0.5621774637988731</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.521187330846643</v>
+        <v>4.349708458113198</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.540705512251621</v>
+        <v>1.414391370136644</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.5240034444932586</v>
+        <v>-0.5450328450615542</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.93930472815009</v>
+        <v>3.974172009989009</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.73879676941884</v>
+        <v>1.608829869791835</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.3099793602398183</v>
+        <v>-0.2454327745967296</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.618917517361563</v>
+        <v>4.598219983769814</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.637309368051356</v>
+        <v>3.533935870864929</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.762666156099579</v>
+        <v>1.693243154369232</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.175950764117717</v>
+        <v>7.08872912709817</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.101526878409687</v>
+        <v>4.07419498560643</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.92734347019042</v>
+        <v>1.818131007438158</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.327140419868917</v>
+        <v>6.518936581249374</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.469446576674637</v>
+        <v>3.432618832876667</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.380922396480395</v>
+        <v>1.3920676380468</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.420405404161706</v>
+        <v>6.38637466693604</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1121041844760959</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.174973095717717</v>
+        <v>1.174973095717716</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4516983031641092</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2206485615623022</v>
+        <v>0.2002167754615257</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.08807982264830738</v>
+        <v>-0.1062529298502686</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8255202480162318</v>
+        <v>0.7826777460789157</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2285596707525772</v>
+        <v>0.2029591176411741</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.07854766627703191</v>
+        <v>-0.08056593172601498</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5634950769046557</v>
+        <v>0.5672029737655158</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2932100495026525</v>
+        <v>0.2625149330235474</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.05101380205654728</v>
+        <v>-0.04326472246422249</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.7595506888896018</v>
+        <v>0.7663737052363215</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8166675613513702</v>
+        <v>0.7808018642690328</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3949324161444021</v>
+        <v>0.3762865782160209</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.63744614734898</v>
+        <v>1.58802236910701</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7186528504884804</v>
+        <v>0.7124496840411705</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.339884613503637</v>
+        <v>0.323468274413046</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.110941858561317</v>
+        <v>1.158031847557546</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6623164833727858</v>
+        <v>0.6544930324924161</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2623696695180111</v>
+        <v>0.2646238601302848</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.22669363641158</v>
+        <v>1.230291417184252</v>
       </c>
     </row>
     <row r="34">
